--- a/BacktestData.xlsx
+++ b/BacktestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f47b04c6e87421f/ForexSimulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\DayTrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3102ACC0-99CB-46A2-BB60-8B2689F09ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD9C3D94-D9F2-4988-89FD-7FD2D8C60555}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF4DBD-88DF-4086-BB23-282D29F104A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -87,9 +88,6 @@
     <t>Trên 2R</t>
   </si>
   <si>
-    <t>Xu hướng theo lệnh vào. Không có tranh chấp bò gấu</t>
-  </si>
-  <si>
     <t>29/10/2018</t>
   </si>
   <si>
@@ -145,6 +143,36 @@
   </si>
   <si>
     <t>17/6/2020</t>
+  </si>
+  <si>
+    <t>30/6/2020</t>
+  </si>
+  <si>
+    <t>NZD/CAD</t>
+  </si>
+  <si>
+    <t>21/8/2021</t>
+  </si>
+  <si>
+    <t>AUD/CHF</t>
+  </si>
+  <si>
+    <t>24/8/2021</t>
+  </si>
+  <si>
+    <t>21/1/2021</t>
+  </si>
+  <si>
+    <t>EUR/CAD</t>
+  </si>
+  <si>
+    <t>28/5/2020</t>
+  </si>
+  <si>
+    <t>17/11/2020</t>
+  </si>
+  <si>
+    <t>Xu hướng rõ ràng, Sideway có quy luật</t>
   </si>
 </sst>
 </file>
@@ -273,8 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,17 +316,452 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="310">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5553,6 +6022,886 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15094323" y="118804765"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486EF0E5-BFD0-4C9E-AC90-2F9ACFAEB215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="121807941"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE74E74-BCF7-47F3-9B3D-B1F194A4618C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="121807941"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F648FA-7542-4643-89F1-3CCF3DD87F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="124811118"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F155E35-B07E-4426-959B-B906C9894727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="124811118"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B9058D-9100-4A21-AC02-18260FB8DE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="127814294"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F288BD22-CC69-4290-84D5-0882CA8D1148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="127814294"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CA7EBE-7224-44E2-9111-09D3652FCEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="130817471"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86546073-354F-44DC-9E06-D96063D8E99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="130817471"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB107E2-C7E7-4431-9444-B77429339CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="133820647"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DDD2D5-E24B-4A61-A0FC-5587101AAC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="133820647"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C09A34-CFDC-4551-8B81-5F111B54BF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="136823824"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2840BA0E-E6D0-4C01-8DE0-8C161F3B74DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="136823824"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AEAB42-9BCB-46DC-962F-E57DEA543FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="139827000"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A84D14B-3DF0-441B-A5A1-8BC3E3B4EAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="139827000"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D779D4-EB55-49E5-84E6-F48DB4395EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="142830176"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAA285D-CC4E-4D8B-9169-6E171061245D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="142830176"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CCEA0F-02BC-4AD7-B148-D812F239E079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="145833353"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBDF25E-5B2E-4884-9066-29ECA11C300F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="145833353"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A650D9-08F2-4EA8-8F96-7C6AC8F5729D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="148836529"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EA3A10-240E-4725-8D32-5087E416AD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="148836529"/>
           <a:ext cx="4303059" cy="2868706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5828,11 +7177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5847,45 +7196,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -5897,20 +7246,20 @@
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -5919,12 +7268,12 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -5934,7 +7283,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -5952,7 +7301,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D4:H4,"Có")&amp;"/"&amp;COUNTIF(D4:H4,"*")</f>
+        <f t="shared" ref="I4:I43" si="0" xml:space="preserve"> COUNTIF(D4:H4,"Có")&amp;"/"&amp;COUNTIF(D4:H4,"*")</f>
         <v>2/5</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -5967,7 +7316,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -5985,7 +7334,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D5:H5,"Có")&amp;"/"&amp;COUNTIF(D5:H5,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -6018,7 +7367,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D6:H6,"Có")&amp;"/"&amp;COUNTIF(D6:H6,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -6051,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D7:H7,"Có")&amp;"/"&amp;COUNTIF(D7:H7,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -6084,7 +7433,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D8:H8,"Có")&amp;"/"&amp;COUNTIF(D8:H8,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -6117,7 +7466,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D9:H9,"Có")&amp;"/"&amp;COUNTIF(D9:H9,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -6132,7 +7481,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -6150,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D10:H10,"Có")&amp;"/"&amp;COUNTIF(D10:H10,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -6183,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D11:H11,"Có")&amp;"/"&amp;COUNTIF(D11:H11,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -6216,7 +7565,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D12:H12,"Có")&amp;"/"&amp;COUNTIF(D12:H12,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -6231,7 +7580,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -6249,7 +7598,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D13:H13,"Có")&amp;"/"&amp;COUNTIF(D13:H13,"*")</f>
+        <f t="shared" si="0"/>
         <v>5/5</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -6264,7 +7613,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
@@ -6282,7 +7631,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D14:H14,"Có")&amp;"/"&amp;COUNTIF(D14:H14,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -6297,7 +7646,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
@@ -6315,7 +7664,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D15:H15,"Có")&amp;"/"&amp;COUNTIF(D15:H15,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -6330,7 +7679,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
@@ -6348,7 +7697,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D16:H16,"Có")&amp;"/"&amp;COUNTIF(D16:H16,"*")</f>
+        <f t="shared" si="0"/>
         <v>5/5</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -6381,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D17:H17,"Có")&amp;"/"&amp;COUNTIF(D17:H17,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -6396,7 +7745,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
@@ -6414,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D18:H18,"Có")&amp;"/"&amp;COUNTIF(D18:H18,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -6447,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D19:H19,"Có")&amp;"/"&amp;COUNTIF(D19:H19,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -6480,7 +7829,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D20:H20,"Có")&amp;"/"&amp;COUNTIF(D20:H20,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -6513,7 +7862,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D21:H21,"Có")&amp;"/"&amp;COUNTIF(D21:H21,"*")</f>
+        <f t="shared" si="0"/>
         <v>1/5</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -6528,7 +7877,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
@@ -6546,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D22:H22,"Có")&amp;"/"&amp;COUNTIF(D22:H22,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -6579,7 +7928,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D23:H23,"Có")&amp;"/"&amp;COUNTIF(D23:H23,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -6612,7 +7961,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D24:H24,"Có")&amp;"/"&amp;COUNTIF(D24:H24,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -6645,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D25:H25,"Có")&amp;"/"&amp;COUNTIF(D25:H25,"*")</f>
+        <f t="shared" si="0"/>
         <v>5/5</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -6660,7 +8009,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -6678,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D26:H26,"Có")&amp;"/"&amp;COUNTIF(D26:H26,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -6711,7 +8060,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D27:H27,"Có")&amp;"/"&amp;COUNTIF(D27:H27,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -6744,7 +8093,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D28:H28,"Có")&amp;"/"&amp;COUNTIF(D28:H28,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -6759,7 +8108,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
@@ -6777,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D29:H29,"Có")&amp;"/"&amp;COUNTIF(D29:H29,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -6810,7 +8159,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D30:H30,"Có")&amp;"/"&amp;COUNTIF(D30:H30,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -6825,7 +8174,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>5</v>
@@ -6843,7 +8192,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D31:H31,"Có")&amp;"/"&amp;COUNTIF(D31:H31,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -6858,7 +8207,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
@@ -6876,7 +8225,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D32:H32,"Có")&amp;"/"&amp;COUNTIF(D32:H32,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -6891,7 +8240,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -6909,7 +8258,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D33:H33,"Có")&amp;"/"&amp;COUNTIF(D33:H33,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -6924,7 +8273,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>5</v>
@@ -6942,7 +8291,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D34:H34,"Có")&amp;"/"&amp;COUNTIF(D34:H34,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -6957,7 +8306,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
@@ -6975,7 +8324,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D35:H35,"Có")&amp;"/"&amp;COUNTIF(D35:H35,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -6990,7 +8339,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -7008,7 +8357,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D36:H36,"Có")&amp;"/"&amp;COUNTIF(D36:H36,"*")</f>
+        <f t="shared" si="0"/>
         <v>1/5</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -7023,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -7041,7 +8390,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D37:H37,"Có")&amp;"/"&amp;COUNTIF(D37:H37,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -7056,7 +8405,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -7074,7 +8423,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D38:H38,"Có")&amp;"/"&amp;COUNTIF(D38:H38,"*")</f>
+        <f t="shared" si="0"/>
         <v>4/5</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -7107,7 +8456,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D39:H39,"Có")&amp;"/"&amp;COUNTIF(D39:H39,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -7140,7 +8489,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D40:H40,"Có")&amp;"/"&amp;COUNTIF(D40:H40,"*")</f>
+        <f t="shared" si="0"/>
         <v>2/5</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -7173,7 +8522,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D41:H41,"Có")&amp;"/"&amp;COUNTIF(D41:H41,"*")</f>
+        <f t="shared" si="0"/>
         <v>3/5</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -7206,7 +8555,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D42:H42,"Có")&amp;"/"&amp;COUNTIF(D42:H42,"*")</f>
+        <f t="shared" si="0"/>
         <v>5/5</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -7221,7 +8570,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>5</v>
@@ -7239,11 +8588,341 @@
         <v>4</v>
       </c>
       <c r="I43" s="9" t="str">
-        <f xml:space="preserve"> COUNTIF(D43:H43,"Có")&amp;"/"&amp;COUNTIF(D43:H43,"*")</f>
+        <f t="shared" si="0"/>
         <v>1/5</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="9" t="str">
+        <f t="shared" ref="I44" si="1" xml:space="preserve"> COUNTIF(D44:H44,"Có")&amp;"/"&amp;COUNTIF(D44:H44,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="9" t="str">
+        <f t="shared" ref="I45" si="2" xml:space="preserve"> COUNTIF(D45:H45,"Có")&amp;"/"&amp;COUNTIF(D45:H45,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="9" t="str">
+        <f t="shared" ref="I46" si="3" xml:space="preserve"> COUNTIF(D46:H46,"Có")&amp;"/"&amp;COUNTIF(D46:H46,"*")</f>
+        <v>2/5</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="9" t="str">
+        <f t="shared" ref="I47" si="4" xml:space="preserve"> COUNTIF(D47:H47,"Có")&amp;"/"&amp;COUNTIF(D47:H47,"*")</f>
+        <v>3/5</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7">
+        <v>44112</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="9" t="str">
+        <f t="shared" ref="I48" si="5" xml:space="preserve"> COUNTIF(D48:H48,"Có")&amp;"/"&amp;COUNTIF(D48:H48,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7">
+        <v>44143</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="9" t="str">
+        <f t="shared" ref="I49" si="6" xml:space="preserve"> COUNTIF(D49:H49,"Có")&amp;"/"&amp;COUNTIF(D49:H49,"*")</f>
+        <v>5/5</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="9" t="str">
+        <f t="shared" ref="I50" si="7" xml:space="preserve"> COUNTIF(D50:H50,"Có")&amp;"/"&amp;COUNTIF(D50:H50,"*")</f>
+        <v>3/5</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="7">
+        <v>43534</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="9" t="str">
+        <f t="shared" ref="I51" si="8" xml:space="preserve"> COUNTIF(D51:H51,"Có")&amp;"/"&amp;COUNTIF(D51:H51,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="9" t="str">
+        <f t="shared" ref="I52" si="9" xml:space="preserve"> COUNTIF(D52:H52,"Có")&amp;"/"&amp;COUNTIF(D52:H52,"*")</f>
+        <v>3/5</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="9" t="str">
+        <f t="shared" ref="I53" si="10" xml:space="preserve"> COUNTIF(D53:H53,"Có")&amp;"/"&amp;COUNTIF(D53:H53,"*")</f>
+        <v>2/5</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7259,856 +8938,1106 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:H19">
-    <cfRule type="containsText" dxfId="246" priority="385" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="309" priority="476" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="386" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="308" priority="477" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6">
-    <cfRule type="cellIs" dxfId="244" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="368" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="369" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="370" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="280" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="304" priority="371" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="281" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="303" priority="372" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="239" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="363" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="364" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="365" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="275" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="299" priority="366" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="276" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="298" priority="367" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="234" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="358" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="359" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="360" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="270" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="294" priority="361" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="271" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="293" priority="362" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="229" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="351" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="352" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="353" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="263" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="289" priority="354" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="264" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="288" priority="355" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="224" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="344" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="345" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="346" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="256" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="284" priority="347" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="257" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="283" priority="348" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="219" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="337" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="338" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="339" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="249" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="279" priority="340" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="250" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="278" priority="341" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="214" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="330" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="331" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="332" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="242" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="274" priority="333" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="243" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="273" priority="334" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="209" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="323" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="324" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="325" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="235" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="269" priority="326" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="236" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="268" priority="327" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="204" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="316" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="317" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="318" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="228" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="264" priority="319" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="229" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="263" priority="320" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="199" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="309" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="310" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="311" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="221" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="259" priority="312" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="222" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="258" priority="313" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="194" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="302" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="303" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="304" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="214" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="254" priority="305" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="215" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="253" priority="306" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="189" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="295" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="296" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="297" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="207" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="249" priority="298" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="208" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="248" priority="299" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="184" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="288" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="289" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="290" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="200" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="244" priority="291" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="201" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="243" priority="292" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="179" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="281" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="282" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="283" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="193" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="239" priority="284" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="194" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="238" priority="285" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H20">
-    <cfRule type="containsText" dxfId="174" priority="188" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="237" priority="279" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="189" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="236" priority="280" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="172" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="274" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="275" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="276" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="186" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="232" priority="277" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="187" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="231" priority="278" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:H21">
-    <cfRule type="containsText" dxfId="167" priority="181" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="230" priority="272" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="182" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="229" priority="273" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="165" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="267" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="268" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="269" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="179" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="225" priority="270" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="180" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="224" priority="271" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:H22">
-    <cfRule type="containsText" dxfId="160" priority="174" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="223" priority="265" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="175" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="222" priority="266" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="158" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="260" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="261" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="262" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="172" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="218" priority="263" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="173" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="217" priority="264" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:H23">
-    <cfRule type="containsText" dxfId="153" priority="167" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="216" priority="258" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="168" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="215" priority="259" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="151" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="253" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="254" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="255" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="211" priority="256" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="166" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="210" priority="257" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:H24">
-    <cfRule type="containsText" dxfId="146" priority="160" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="209" priority="251" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="161" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="208" priority="252" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="246" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="247" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="248" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="158" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="204" priority="249" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="159" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="203" priority="250" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:H25">
-    <cfRule type="containsText" dxfId="139" priority="153" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="202" priority="244" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="154" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="201" priority="245" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="239" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="240" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="241" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="197" priority="242" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="196" priority="243" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:H26">
-    <cfRule type="containsText" dxfId="132" priority="146" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="195" priority="237" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="147" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="194" priority="238" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="130" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="232" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="233" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="234" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="144" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="190" priority="235" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="145" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="189" priority="236" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:H27">
-    <cfRule type="containsText" dxfId="125" priority="139" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="188" priority="230" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="140" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="187" priority="231" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="123" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="225" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="226" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="227" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="183" priority="228" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="138" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="182" priority="229" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H28">
-    <cfRule type="containsText" dxfId="118" priority="132" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="181" priority="223" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="180" priority="224" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="116" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="218" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="219" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="220" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="130" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="176" priority="221" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="131" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="175" priority="222" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H29">
-    <cfRule type="containsText" dxfId="111" priority="125" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="174" priority="216" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="126" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="173" priority="217" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="109" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="211" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="212" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="213" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="169" priority="214" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="124" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:H30">
-    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="167" priority="209" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="166" priority="210" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="102" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="204" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="205" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="206" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="116" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="162" priority="207" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="117" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H31">
-    <cfRule type="containsText" dxfId="97" priority="111" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="160" priority="202" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="112" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="159" priority="203" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="197" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="198" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="199" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="155" priority="200" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="110" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="154" priority="201" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:H32">
-    <cfRule type="containsText" dxfId="90" priority="104" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="153" priority="195" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="105" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="152" priority="196" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="190" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="191" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="192" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="102" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="148" priority="193" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="103" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="147" priority="194" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H33">
-    <cfRule type="containsText" dxfId="83" priority="97" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="146" priority="188" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="98" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="145" priority="189" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="81" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="183" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="184" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="185" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="141" priority="186" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="140" priority="187" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:H34">
-    <cfRule type="containsText" dxfId="76" priority="90" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="139" priority="181" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="91" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="138" priority="182" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="74" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="176" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="177" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="178" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="88" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="134" priority="179" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="89" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="133" priority="180" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:H35">
-    <cfRule type="containsText" dxfId="69" priority="83" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="132" priority="174" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="84" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="131" priority="175" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="67" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="169" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="170" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="171" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="81" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="127" priority="172" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="82" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="126" priority="173" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:H36">
-    <cfRule type="containsText" dxfId="62" priority="76" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="125" priority="167" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="77" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="124" priority="168" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="60" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="162" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="163" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="164" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="74" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="120" priority="165" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="75" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="119" priority="166" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:H37">
-    <cfRule type="containsText" dxfId="55" priority="69" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="118" priority="160" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="70" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="117" priority="161" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="155" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="156" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="113" priority="158" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="112" priority="159" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:H38">
-    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="111" priority="146" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="56" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="110" priority="147" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="141" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="142" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="143" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="106" priority="144" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="105" priority="145" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:H39">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="104" priority="125" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="103" priority="126" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="120" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="121" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="122" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="98" priority="124" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:H40">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="97" priority="118" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="96" priority="119" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="92" priority="116" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="91" priority="117" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:H41">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="90" priority="111" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="89" priority="112" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="106" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="107" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="108" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="85" priority="109" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="84" priority="110" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:H42">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="83" priority="104" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="82" priority="105" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="101" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="78" priority="102" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="77" priority="103" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:H43">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="75" priority="98" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="93" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="94" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="71" priority="95" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="70" priority="96" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:H44">
+    <cfRule type="containsText" dxfId="69" priority="90" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="91" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="89" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:H45">
+    <cfRule type="containsText" dxfId="62" priority="83" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="84" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="60" priority="78" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:H46">
+    <cfRule type="containsText" dxfId="55" priority="76" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="74" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:H47">
+    <cfRule type="containsText" dxfId="48" priority="62" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="63" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="61" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H48">
+    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="53" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="54" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:H49">
+    <cfRule type="containsText" dxfId="34" priority="48" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:H50">
+    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:H51">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:H52">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:H53">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J43" xr:uid="{2F825C6C-4DFA-41E1-AF69-8929838E0DC1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J53" xr:uid="{2F825C6C-4DFA-41E1-AF69-8929838E0DC1}">
       <formula1>"Dưới 2R, Trên 2R, Trên 3R và vô cực"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:H43" xr:uid="{EF258F54-8828-4C89-95AB-A30F846EE769}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:H53" xr:uid="{EF258F54-8828-4C89-95AB-A30F846EE769}">
       <formula1>"Có, Không"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8116,4 +10045,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7B1D76-FF13-464E-AB5D-8B3153DB7FF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BacktestData.xlsx
+++ b/BacktestData.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\DayTrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF4DBD-88DF-4086-BB23-282D29F104A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F160E6-F7EE-4C7B-B8F3-3D750D7145C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$L$53</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -172,13 +175,67 @@
     <t>17/11/2020</t>
   </si>
   <si>
-    <t>Xu hướng rõ ràng, Sideway có quy luật</t>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Tỷ lệ thắng</t>
+  </si>
+  <si>
+    <t>Xu hướng ủng hộ, Sideway có quy luật</t>
+  </si>
+  <si>
+    <t>Tỷ lệ thua</t>
+  </si>
+  <si>
+    <t>Đủ 3 yếu tố</t>
+  </si>
+  <si>
+    <t>Tổng mô hình</t>
+  </si>
+  <si>
+    <t>% Dưới 2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yếu tố </t>
+  </si>
+  <si>
+    <t>Đã tham gia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SL Ngắn</t>
+  </si>
+  <si>
+    <t>Bắt buộc</t>
+  </si>
+  <si>
+    <t>Thêm 1 trong số</t>
+  </si>
+  <si>
+    <t>Thuận xu hướng</t>
+  </si>
+  <si>
+    <t>Không vào khi</t>
+  </si>
+  <si>
+    <t>Sideway không quy luật</t>
+  </si>
+  <si>
+    <t>Mô hình 123BO quá nhiều râu chạm</t>
+  </si>
+  <si>
+    <t>Chiến lược 123BO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -316,6 +373,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2516,8 +2595,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4392706</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2947147</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7177,11 +7256,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7227,7 +7307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7251,7 +7331,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7268,14 +7348,14 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7301,14 +7381,14 @@
         <v>5</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="shared" ref="I4:I43" si="0" xml:space="preserve"> COUNTIF(D4:H4,"Có")&amp;"/"&amp;COUNTIF(D4:H4,"*")</f>
+        <f xml:space="preserve"> COUNTIF(D4:H4,"Có")&amp;"/"&amp;COUNTIF(D4:H4,"*")</f>
         <v>2/5</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7334,14 +7414,14 @@
         <v>4</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I43" si="0" xml:space="preserve"> COUNTIF(D5:H5,"Có")&amp;"/"&amp;COUNTIF(D5:H5,"*")</f>
         <v>2/5</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7407,7 +7487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7440,7 +7520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -7473,7 +7553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7506,7 +7586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7836,7 +7916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7869,7 +7949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -8331,7 +8411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -8430,7 +8510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -8463,7 +8543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -8562,7 +8642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -8661,7 +8741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -8892,7 +8972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -8926,6 +9006,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="3/5"/>
+        <filter val="4/5"/>
+        <filter val="5/5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
@@ -10049,14 +10141,309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7B1D76-FF13-464E-AB5D-8B3153DB7FF0}">
-  <dimension ref="A1"/>
+  <dimension ref="F7:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(Data!I:I, "1/5")</f>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIFS(Data!I:I, "1/5", Data!J:J, "Dưới 2R")</f>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f>100 - ((I9/H9)*100)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF(Data!I:I, "2/5")</f>
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIFS(Data!I:I, "2/5", Data!J:J, "Dưới 2R")</f>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f>100 - ((I10/H10)*100)</f>
+        <v>50</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="20">
+        <f>(COUNTIFS(Data!D:D, "Có", Data!J:J, "Dưới 2R"))</f>
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <f>COUNTIFS(Data!D:D, "Có")</f>
+        <v>43</v>
+      </c>
+      <c r="R10" s="19">
+        <f xml:space="preserve"> 100*(P10/Q10)</f>
+        <v>13.953488372093023</v>
+      </c>
+    </row>
+    <row r="11" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF(Data!I:I, "3/5")</f>
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIFS(Data!I:I, "3/5", Data!J:J, "Dưới 2R")</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <f>100 - ((I11/H11)*100)</f>
+        <v>93.75</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="20">
+        <f>COUNTIFS(Data!E:E, "Có", Data!J:J, "Dưới 2R")</f>
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f>COUNTIFS(Data!E:E, "Có")</f>
+        <v>17</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" ref="R11:R14" si="0" xml:space="preserve"> 100*(P11/Q11)</f>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="12" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF(Data!I:I, "4/5")</f>
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <f>COUNTIFS(Data!I:I, "4/5", Data!J:J, "Dưới 2R")</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <f>100 - ((I12/H12)*100)</f>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="20">
+        <f>COUNTIFS(Data!F:F, "Có", Data!J:J, "Dưới 2R")</f>
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f>COUNTIFS(Data!F:F, "Có")</f>
+        <v>26</v>
+      </c>
+      <c r="R12" s="19">
+        <f xml:space="preserve"> 100*(P12/Q12)</f>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="13" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIF(Data!I:I, "5/5")</f>
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIFS(Data!I:I, "5/5", Data!J:J, "Dưới 2R")</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>100 - ((I13/H13)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="20">
+        <f>COUNTIFS(Data!G:G, "Có", Data!J:J, "Dưới 2R")</f>
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <f>COUNTIFS(Data!G:G, "Có")</f>
+        <v>39</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="14" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="N14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="20">
+        <f>COUNTIFS(Data!H:H, "Có", Data!J:J, "Dưới 2R")</f>
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <f>COUNTIFS(Data!H:H, "Có")</f>
+        <v>31</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="0"/>
+        <v>22.58064516129032</v>
+      </c>
+    </row>
+    <row r="16" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="N16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="20">
+        <f xml:space="preserve"> COUNTIF(Data!A:A,"&gt;0")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20">
+        <f>(COUNTIFS(Data!D:D, "Có",Data!F:F, "Có", Data!J:J, "Dưới 2R"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" s="24"/>
+      <c r="G23" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F28" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="R10:R14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BacktestData.xlsx
+++ b/BacktestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\DayTrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F160E6-F7EE-4C7B-B8F3-3D750D7145C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FC3315-11F6-485A-9D21-0676C1928F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="BackTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$L$53</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -228,15 +229,111 @@
   <si>
     <t>Chiến lược 123BO</t>
   </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Stadegy</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>EURJPY</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>NZDCHF</t>
+  </si>
+  <si>
+    <t>SGDJPY</t>
+  </si>
+  <si>
+    <t>31/1/2020</t>
+  </si>
+  <si>
+    <t>21/11/2020</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>EUR/JPY</t>
+  </si>
+  <si>
+    <t>21/1/2020</t>
+  </si>
+  <si>
+    <t>EURCHF</t>
+  </si>
+  <si>
+    <t>CADJPY</t>
+  </si>
+  <si>
+    <t>29/2/2020</t>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+  </si>
+  <si>
+    <t>AUDJPY</t>
+  </si>
+  <si>
+    <t>EURGBP</t>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>EURCAD</t>
+  </si>
+  <si>
+    <t>AUDCAD</t>
+  </si>
+  <si>
+    <t>AUDCHF</t>
+  </si>
+  <si>
+    <t>GBPCAD</t>
+  </si>
+  <si>
+    <t>NZDCAD</t>
+  </si>
+  <si>
+    <t>Total R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +345,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -361,25 +464,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -395,11 +486,272 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="310">
+  <dxfs count="345">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2585,7 +2937,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
@@ -2595,8 +2947,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4392706</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2868706</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2634,14 +2986,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4437530</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
@@ -2677,15 +3034,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437530</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
@@ -2721,15 +3083,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
@@ -2765,15 +3132,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
@@ -2809,15 +3181,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
@@ -2853,15 +3230,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
@@ -2897,15 +3279,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 9">
@@ -2941,15 +3328,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Picture 10">
@@ -2985,15 +3377,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Picture 11">
@@ -3029,15 +3426,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="Picture 12">
@@ -3073,15 +3475,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="Picture 13">
@@ -3117,15 +3524,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Picture 14">
@@ -3161,15 +3573,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Picture 15">
@@ -3205,15 +3622,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Picture 16">
@@ -3249,15 +3671,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="Picture 17">
@@ -3293,15 +3720,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="Picture 18">
@@ -3337,15 +3769,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="Picture 19">
@@ -3381,15 +3818,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Picture 20">
@@ -3425,15 +3867,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="22" name="Picture 21">
@@ -3469,15 +3916,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Picture 22">
@@ -3513,15 +3965,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="Picture 23">
@@ -3557,15 +4014,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="Picture 24">
@@ -3601,15 +4063,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="26" name="Picture 25">
@@ -3645,15 +4112,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="27" name="Picture 26">
@@ -3689,15 +4161,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="28" name="Picture 27">
@@ -3733,15 +4210,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="29" name="Picture 28">
@@ -3777,15 +4259,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="Picture 29">
@@ -3821,15 +4308,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="Picture 30">
@@ -3865,15 +4357,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="Picture 31">
@@ -3909,15 +4406,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="Picture 32">
@@ -3953,15 +4455,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="34" name="Picture 33">
@@ -3997,15 +4504,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="37" name="Picture 36">
@@ -4041,15 +4553,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="38" name="Picture 37">
@@ -4085,15 +4602,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="39" name="Picture 38">
@@ -4129,15 +4651,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="Picture 39">
@@ -4173,15 +4700,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="41" name="Picture 40">
@@ -4217,15 +4749,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="42" name="Picture 41">
@@ -4261,15 +4798,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="43" name="Picture 42">
@@ -4305,15 +4847,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="44" name="Picture 43">
@@ -4349,15 +4896,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="45" name="Picture 44">
@@ -4393,15 +4945,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="46" name="Picture 45">
@@ -4437,15 +4994,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="47" name="Picture 46">
@@ -4481,15 +5043,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="48" name="Picture 47">
@@ -4525,15 +5092,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="49" name="Picture 48">
@@ -4569,15 +5141,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="50" name="Picture 49">
@@ -4613,15 +5190,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="51" name="Picture 50">
@@ -4657,15 +5239,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="52" name="Picture 51">
@@ -4701,15 +5288,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="55" name="Picture 54">
@@ -4745,15 +5337,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="56" name="Picture 55">
@@ -4789,15 +5386,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="57" name="Picture 56">
@@ -4833,15 +5435,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="58" name="Picture 57">
@@ -4877,15 +5484,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="59" name="Picture 58">
@@ -4921,15 +5533,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="60" name="Picture 59">
@@ -4965,15 +5582,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="61" name="Picture 60">
@@ -5009,15 +5631,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="62" name="Picture 61">
@@ -5053,15 +5680,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="63" name="Picture 62">
@@ -5097,15 +5729,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="64" name="Picture 63">
@@ -5141,15 +5778,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="65" name="Picture 64">
@@ -5185,15 +5827,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="66" name="Picture 65">
@@ -5229,15 +5876,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="67" name="Picture 66">
@@ -5273,15 +5925,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="68" name="Picture 67">
@@ -5317,15 +5974,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="69" name="Picture 68">
@@ -5361,15 +6023,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="70" name="Picture 69">
@@ -5405,15 +6072,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="71" name="Picture 70">
@@ -5449,15 +6121,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4437529</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="72" name="Picture 71">
@@ -5493,15 +6170,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="73" name="Picture 72">
@@ -5537,15 +6219,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="74" name="Picture 73">
@@ -5581,15 +6268,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2947147</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="75" name="Picture 74">
@@ -5625,15 +6317,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2935941</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="76" name="Picture 75">
@@ -5669,15 +6366,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="81" name="Picture 80">
@@ -5713,15 +6415,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="82" name="Picture 81">
@@ -5757,15 +6464,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="85" name="Picture 84">
@@ -5801,15 +6513,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="86" name="Picture 85">
@@ -5845,15 +6562,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="87" name="Picture 86">
@@ -5889,15 +6611,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="88" name="Picture 87">
@@ -5933,15 +6660,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="89" name="Picture 88">
@@ -5977,15 +6709,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="90" name="Picture 89">
@@ -6021,15 +6758,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="91" name="Picture 90">
@@ -6065,15 +6807,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="92" name="Picture 91">
@@ -6109,15 +6856,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="83" name="Picture 82">
@@ -6153,15 +6905,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="84" name="Picture 83">
@@ -6197,15 +6954,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="93" name="Picture 92">
@@ -6241,15 +7003,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="94" name="Picture 93">
@@ -6285,15 +7052,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="95" name="Picture 94">
@@ -6329,15 +7101,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="96" name="Picture 95">
@@ -6373,15 +7150,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="99" name="Picture 98">
@@ -6417,15 +7199,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="100" name="Picture 99">
@@ -6461,15 +7248,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="101" name="Picture 100">
@@ -6505,15 +7297,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="102" name="Picture 101">
@@ -6549,15 +7346,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="97" name="Picture 96">
@@ -6593,15 +7395,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="98" name="Picture 97">
@@ -6637,15 +7444,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="107" name="Picture 106">
@@ -6681,15 +7493,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="108" name="Picture 107">
@@ -6725,15 +7542,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="103" name="Picture 102">
@@ -6769,15 +7591,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="104" name="Picture 103">
@@ -6813,15 +7640,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="105" name="Picture 104">
@@ -6857,15 +7689,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="106" name="Picture 105">
@@ -6901,15 +7738,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="109" name="Picture 108">
@@ -6945,15 +7787,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4303059" cy="2868706"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="110" name="Picture 109">
@@ -6989,7 +7836,497 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A293BF31-D3E8-4787-8945-5998BD6352AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="151839706"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08427324-C7BE-4615-91C8-4B61AEABC60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="151839706"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB331CDF-D008-4681-B166-74C46B706F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="154842882"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACF9CE5-3BEE-494F-95D9-B1CBDCA24959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="154842882"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BDCA55-5EDF-44CB-BB81-89B4366E65E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="157846059"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58196EE-6B2A-4271-89B8-C8F1FEF6132D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="157846059"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B605CDC-1737-4158-B2C7-AE310B977221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="160849235"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20226FAA-4B67-4B32-AA6E-1BC49D17941D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="160849235"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4392706</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3D9C0B-C614-4E7D-9F31-77E458422A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499912" y="163852412"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4471147</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>2868706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DBF2F7-F0FC-45EE-A1BE-517C0F02D85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15094323" y="163852412"/>
+          <a:ext cx="4303059" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7256,12 +8593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7272,45 +8608,46 @@
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="12" width="67.7109375" customWidth="1"/>
+    <col min="11" max="11" width="68.5703125" customWidth="1"/>
+    <col min="12" max="12" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
@@ -7326,15 +8663,15 @@
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+    <row r="3" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
@@ -7350,12 +8687,12 @@
       <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7388,7 +8725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7414,14 +8751,14 @@
         <v>4</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="shared" ref="I4:I43" si="0" xml:space="preserve"> COUNTIF(D5:H5,"Có")&amp;"/"&amp;COUNTIF(D5:H5,"*")</f>
+        <f t="shared" ref="I5:I43" si="0" xml:space="preserve"> COUNTIF(D5:H5,"Có")&amp;"/"&amp;COUNTIF(D5:H5,"*")</f>
         <v>2/5</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7487,7 +8824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7520,7 +8857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -7553,7 +8890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7586,7 +8923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7916,7 +9253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7949,7 +9286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -8411,7 +9748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -8510,7 +9847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -8543,7 +9880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -8642,7 +9979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -8741,7 +10078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -8972,7 +10309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -9002,6 +10339,171 @@
         <v>2/5</v>
       </c>
       <c r="J53" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="7">
+        <v>43983</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="9" t="str">
+        <f t="shared" ref="I54" si="11" xml:space="preserve"> COUNTIF(D54:H54,"Có")&amp;"/"&amp;COUNTIF(D54:H54,"*")</f>
+        <v>2/5</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="9" t="str">
+        <f t="shared" ref="I55" si="12" xml:space="preserve"> COUNTIF(D55:H55,"Có")&amp;"/"&amp;COUNTIF(D55:H55,"*")</f>
+        <v>2/5</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="7">
+        <v>43862</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="9" t="str">
+        <f t="shared" ref="I56" si="13" xml:space="preserve"> COUNTIF(D56:H56,"Có")&amp;"/"&amp;COUNTIF(D56:H56,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="7">
+        <v>43983</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="9" t="str">
+        <f t="shared" ref="I57" si="14" xml:space="preserve"> COUNTIF(D57:H57,"Có")&amp;"/"&amp;COUNTIF(D57:H57,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="9" t="str">
+        <f t="shared" ref="I58" si="15" xml:space="preserve"> COUNTIF(D58:H58,"Có")&amp;"/"&amp;COUNTIF(D58:H58,"*")</f>
+        <v>4/5</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9010,13 +10512,6 @@
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="3/5"/>
-        <filter val="4/5"/>
-        <filter val="5/5"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="K1:K3"/>
@@ -9030,48 +10525,167 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:H19">
-    <cfRule type="containsText" dxfId="309" priority="476" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="344" priority="525" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="477" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="343" priority="526" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6">
-    <cfRule type="cellIs" dxfId="307" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="417" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="418" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="419" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="371" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="339" priority="420" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="372" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="338" priority="421" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="302" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="412" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="413" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="414" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="366" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="334" priority="415" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="367" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="333" priority="416" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="332" priority="407" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="408" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="409" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="410" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="411" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="327" priority="400" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="401" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="402" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="324" priority="403" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="323" priority="404" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="322" priority="393" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="394" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="395" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="396" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="397" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="317" priority="386" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="387" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="388" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="389" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="390" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="312" priority="379" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="380" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="381" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="382" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="383" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="307" priority="372" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="373" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="374" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="375" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="376" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="302" priority="365" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="366" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="367" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="299" priority="368" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="369" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="297" priority="358" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9082,13 +10696,13 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="294" priority="361" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="293" priority="362" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="J16">
     <cfRule type="cellIs" dxfId="292" priority="351" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9099,13 +10713,13 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="289" priority="354" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="288" priority="355" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="J17">
     <cfRule type="cellIs" dxfId="287" priority="344" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9116,13 +10730,13 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="284" priority="347" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="283" priority="348" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J18">
     <cfRule type="cellIs" dxfId="282" priority="337" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9133,13 +10747,13 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="340" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="278" priority="341" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="J19">
     <cfRule type="cellIs" dxfId="277" priority="330" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9150,590 +10764,596 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="274" priority="333" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="273" priority="334" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="272" priority="323" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="324" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="325" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="326" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="327" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="267" priority="316" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="317" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="318" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="319" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="320" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="262" priority="309" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="310" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="311" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="312" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="313" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="257" priority="302" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="303" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="304" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="305" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="306" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="252" priority="295" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="296" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="297" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="298" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="299" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="247" priority="288" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="289" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="290" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="291" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="292" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="242" priority="281" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="282" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="283" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="284" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="285" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H20">
-    <cfRule type="containsText" dxfId="237" priority="279" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="272" priority="328" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="280" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="271" priority="329" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="235" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="323" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="324" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="325" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="277" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="267" priority="326" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="278" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="266" priority="327" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:H21">
-    <cfRule type="containsText" dxfId="230" priority="272" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="265" priority="321" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="273" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="264" priority="322" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="228" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="316" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="317" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="318" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="270" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="260" priority="319" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="271" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="259" priority="320" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:H22">
-    <cfRule type="containsText" dxfId="223" priority="265" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="258" priority="314" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="266" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="257" priority="315" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="221" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="309" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="310" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="311" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="263" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="253" priority="312" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="264" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="252" priority="313" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:H23">
-    <cfRule type="containsText" dxfId="216" priority="258" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="251" priority="307" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="259" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="250" priority="308" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="214" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="302" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="303" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="304" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="256" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="246" priority="305" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="257" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="245" priority="306" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:H24">
-    <cfRule type="containsText" dxfId="209" priority="251" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="244" priority="300" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="252" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="243" priority="301" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="207" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="295" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="296" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="297" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="249" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="239" priority="298" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="250" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="238" priority="299" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:H25">
-    <cfRule type="containsText" dxfId="202" priority="244" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="237" priority="293" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="245" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="236" priority="294" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="200" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="288" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="289" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="290" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="242" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="232" priority="291" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="243" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="231" priority="292" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:H26">
-    <cfRule type="containsText" dxfId="195" priority="237" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="230" priority="286" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="238" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="229" priority="287" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="193" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="281" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="282" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="283" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="235" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="225" priority="284" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="236" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="224" priority="285" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:H27">
-    <cfRule type="containsText" dxfId="188" priority="230" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="223" priority="279" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="231" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="222" priority="280" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="186" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="274" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="275" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="276" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="228" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="218" priority="277" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="229" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="217" priority="278" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H28">
-    <cfRule type="containsText" dxfId="181" priority="223" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="216" priority="272" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="224" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="215" priority="273" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="179" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="267" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="268" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="269" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="221" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="211" priority="270" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="222" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="210" priority="271" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H29">
-    <cfRule type="containsText" dxfId="174" priority="216" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="209" priority="265" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="217" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="208" priority="266" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="172" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="260" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="261" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="262" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="214" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="204" priority="263" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="203" priority="264" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:H30">
-    <cfRule type="containsText" dxfId="167" priority="209" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="202" priority="258" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="210" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="201" priority="259" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="165" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="253" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="254" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="255" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="207" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="197" priority="256" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="196" priority="257" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H31">
-    <cfRule type="containsText" dxfId="160" priority="202" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="195" priority="251" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="203" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="194" priority="252" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="158" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="246" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="247" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="248" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="200" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="190" priority="249" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="201" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="189" priority="250" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:H32">
-    <cfRule type="containsText" dxfId="153" priority="195" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="188" priority="244" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="196" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="187" priority="245" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="151" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="239" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="240" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="241" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="193" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="183" priority="242" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="194" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="182" priority="243" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H33">
-    <cfRule type="containsText" dxfId="146" priority="188" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="181" priority="237" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="189" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="180" priority="238" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="144" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="232" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="233" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="234" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="186" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="176" priority="235" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="187" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="175" priority="236" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:H34">
-    <cfRule type="containsText" dxfId="139" priority="181" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="174" priority="230" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="182" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="173" priority="231" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="137" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="225" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="226" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="227" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="179" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="169" priority="228" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="180" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="168" priority="229" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:H35">
-    <cfRule type="containsText" dxfId="132" priority="174" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="167" priority="223" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="175" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="166" priority="224" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="130" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="218" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="219" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="220" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="172" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="162" priority="221" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="173" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="161" priority="222" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:H36">
-    <cfRule type="containsText" dxfId="125" priority="167" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="160" priority="216" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="168" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="159" priority="217" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="123" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="211" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="212" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="213" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="165" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="155" priority="214" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="166" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="154" priority="215" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:H37">
-    <cfRule type="containsText" dxfId="118" priority="160" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="153" priority="209" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="161" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="152" priority="210" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="116" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="204" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="205" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="206" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="158" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="148" priority="207" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="159" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="147" priority="208" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:H38">
-    <cfRule type="containsText" dxfId="111" priority="146" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="146" priority="195" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="147" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="145" priority="196" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="144" priority="190" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="191" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="192" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="193" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="194" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:H39">
+    <cfRule type="containsText" dxfId="139" priority="174" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="175" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="137" priority="169" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="170" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="171" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="172" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="173" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:H40">
+    <cfRule type="containsText" dxfId="132" priority="167" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="168" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="165" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="166" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:H41">
+    <cfRule type="containsText" dxfId="125" priority="160" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="161" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="cellIs" dxfId="123" priority="155" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="156" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="157" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="158" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="159" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:H42">
+    <cfRule type="containsText" dxfId="118" priority="153" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="154" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="149" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="150" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="151" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="152" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:H43">
+    <cfRule type="containsText" dxfId="111" priority="146" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="147" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
     <cfRule type="cellIs" dxfId="109" priority="141" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9744,171 +11364,171 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="106" priority="144" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="105" priority="145" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:H39">
-    <cfRule type="containsText" dxfId="104" priority="125" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="126" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="102" priority="120" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="121" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="122" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="124" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:H40">
-    <cfRule type="containsText" dxfId="97" priority="118" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="119" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="116" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="117" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:H41">
-    <cfRule type="containsText" dxfId="90" priority="111" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="112" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="88" priority="106" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="107" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="108" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="109" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="110" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:H42">
-    <cfRule type="containsText" dxfId="83" priority="104" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="105" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="101" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="102" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="103" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:H43">
-    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="98" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
-      <formula>"Trên 3R và vô cực"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="93" operator="equal">
-      <formula>"Trên 2R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="94" operator="equal">
-      <formula>"Dưới 2R"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="95" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="96" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:H44">
-    <cfRule type="containsText" dxfId="69" priority="90" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="104" priority="139" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="91" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="103" priority="140" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="135" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="99" priority="137" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="89" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="98" priority="138" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:H45">
-    <cfRule type="containsText" dxfId="62" priority="83" operator="containsText" text="Không">
+    <cfRule type="containsText" dxfId="97" priority="132" operator="containsText" text="Không">
       <formula>NOT(ISERROR(SEARCH("Không",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="84" operator="containsText" text="Có">
+    <cfRule type="containsText" dxfId="96" priority="133" operator="containsText" text="Có">
       <formula>NOT(ISERROR(SEARCH("Có",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="95" priority="127" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="128" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="129" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="130" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="131" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:H46">
+    <cfRule type="containsText" dxfId="90" priority="125" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="126" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="88" priority="120" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="121" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="122" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="123" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="124" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:H47">
+    <cfRule type="containsText" dxfId="83" priority="111" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="112" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="81" priority="106" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="107" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="108" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="109" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="110" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H48">
+    <cfRule type="containsText" dxfId="76" priority="104" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="105" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="74" priority="99" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="101" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="102" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="103" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:H49">
+    <cfRule type="containsText" dxfId="69" priority="97" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="98" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="67" priority="92" operator="equal">
+      <formula>"Trên 3R và vô cực"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="93" operator="equal">
+      <formula>"Trên 2R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="94" operator="equal">
+      <formula>"Dưới 2R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="95" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="96" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:H50">
+    <cfRule type="containsText" dxfId="62" priority="83" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="84" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
     <cfRule type="cellIs" dxfId="60" priority="78" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9919,21 +11539,21 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:H46">
+  <conditionalFormatting sqref="D51:H51">
     <cfRule type="containsText" dxfId="55" priority="76" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",D51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J51">
     <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -9944,71 +11564,71 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="74" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:H47">
-    <cfRule type="containsText" dxfId="48" priority="62" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="63" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D47)))</formula>
+  <conditionalFormatting sqref="D52:H52">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="70" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="46" priority="64" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="66" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="61" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J47)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="67" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="68" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:H48">
-    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D48)))</formula>
+  <conditionalFormatting sqref="D53:H53">
+    <cfRule type="containsText" dxfId="41" priority="62" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="63" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="53" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="54" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J48)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="60" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:H49">
+  <conditionalFormatting sqref="D54:H54">
     <cfRule type="containsText" dxfId="34" priority="48" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",D54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="J54">
     <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
@@ -10019,117 +11639,117 @@
       <formula>"Dưới 2R"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Không",J54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Có",J54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:H50">
-    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D50)))</formula>
+  <conditionalFormatting sqref="D55:H55">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="42" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J50)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:H51">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D51)))</formula>
+  <conditionalFormatting sqref="D56:H56">
+    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J51)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="32" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:H52">
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D52)))</formula>
+  <conditionalFormatting sqref="D57:H57">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J52)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="25" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="26" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:H53">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",D53)))</formula>
+  <conditionalFormatting sqref="D58:H58">
+    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="J58">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"Trên 3R và vô cực"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>"Trên 2R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>"Dưới 2R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Không">
-      <formula>NOT(ISERROR(SEARCH("Không",J53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Có">
-      <formula>NOT(ISERROR(SEARCH("Có",J53)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="Không">
+      <formula>NOT(ISERROR(SEARCH("Không",J58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="19" operator="containsText" text="Có">
+      <formula>NOT(ISERROR(SEARCH("Có",J58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J53" xr:uid="{2F825C6C-4DFA-41E1-AF69-8929838E0DC1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J58" xr:uid="{2F825C6C-4DFA-41E1-AF69-8929838E0DC1}">
       <formula1>"Dưới 2R, Trên 2R, Trên 3R và vô cực"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:H53" xr:uid="{EF258F54-8828-4C89-95AB-A30F846EE769}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:H58" xr:uid="{EF258F54-8828-4C89-95AB-A30F846EE769}">
       <formula1>"Có, Không"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10143,8 +11763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7B1D76-FF13-464E-AB5D-8B3153DB7FF0}">
   <dimension ref="F7:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10161,21 +11781,21 @@
   </cols>
   <sheetData>
     <row r="7" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10195,17 +11815,17 @@
         <f>100 - ((I9/H9)*100)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10215,30 +11835,30 @@
       </c>
       <c r="H10">
         <f>COUNTIF(Data!I:I, "2/5")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <f>COUNTIFS(Data!I:I, "2/5", Data!J:J, "Dưới 2R")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <f>100 - ((I10/H10)*100)</f>
         <v>50</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="16">
         <f>(COUNTIFS(Data!D:D, "Có", Data!J:J, "Dưới 2R"))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q10">
         <f>COUNTIFS(Data!D:D, "Có")</f>
-        <v>43</v>
-      </c>
-      <c r="R10" s="19">
+        <v>48</v>
+      </c>
+      <c r="R10" s="15">
         <f xml:space="preserve"> 100*(P10/Q10)</f>
-        <v>13.953488372093023</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="11" spans="7:18" x14ac:dyDescent="0.25">
@@ -10253,14 +11873,14 @@
         <f>COUNTIFS(Data!I:I, "3/5", Data!J:J, "Dưới 2R")</f>
         <v>1</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="14">
         <f>100 - ((I11/H11)*100)</f>
         <v>93.75</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="16">
         <f>COUNTIFS(Data!E:E, "Có", Data!J:J, "Dưới 2R")</f>
         <v>2</v>
       </c>
@@ -10268,7 +11888,7 @@
         <f>COUNTIFS(Data!E:E, "Có")</f>
         <v>17</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="15">
         <f t="shared" ref="R11:R14" si="0" xml:space="preserve"> 100*(P11/Q11)</f>
         <v>11.76470588235294</v>
       </c>
@@ -10279,30 +11899,30 @@
       </c>
       <c r="H12">
         <f>COUNTIF(Data!I:I, "4/5")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <f>COUNTIFS(Data!I:I, "4/5", Data!J:J, "Dưới 2R")</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="18">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14">
         <f>100 - ((I12/H12)*100)</f>
-        <v>92.857142857142861</v>
-      </c>
-      <c r="N12" s="23" t="s">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="16">
         <f>COUNTIFS(Data!F:F, "Có", Data!J:J, "Dưới 2R")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <f>COUNTIFS(Data!F:F, "Có")</f>
-        <v>26</v>
-      </c>
-      <c r="R12" s="19">
+        <v>29</v>
+      </c>
+      <c r="R12" s="15">
         <f xml:space="preserve"> 100*(P12/Q12)</f>
-        <v>15.384615384615385</v>
+        <v>17.241379310344829</v>
       </c>
     </row>
     <row r="13" spans="7:18" x14ac:dyDescent="0.25">
@@ -10321,66 +11941,62 @@
         <f>100 - ((I13/H13)*100)</f>
         <v>100</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="16">
         <f>COUNTIFS(Data!G:G, "Có", Data!J:J, "Dưới 2R")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13">
         <f>COUNTIFS(Data!G:G, "Có")</f>
-        <v>39</v>
-      </c>
-      <c r="R13" s="19">
+        <v>44</v>
+      </c>
+      <c r="R13" s="15">
         <f t="shared" si="0"/>
-        <v>7.6923076923076925</v>
+        <v>11.363636363636363</v>
       </c>
     </row>
     <row r="14" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="16">
         <f>COUNTIFS(Data!H:H, "Có", Data!J:J, "Dưới 2R")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q14">
         <f>COUNTIFS(Data!H:H, "Có")</f>
-        <v>31</v>
-      </c>
-      <c r="R14" s="19">
+        <v>34</v>
+      </c>
+      <c r="R14" s="15">
         <f t="shared" si="0"/>
-        <v>22.58064516129032</v>
+        <v>23.52941176470588</v>
       </c>
     </row>
     <row r="16" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="16">
         <f xml:space="preserve"> COUNTIF(Data!A:A,"&gt;0")</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="P20">
-        <f>(COUNTIFS(Data!D:D, "Có",Data!F:F, "Có", Data!J:J, "Dưới 2R"))</f>
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="24" t="s">
-        <v>59</v>
-      </c>
       <c r="G22" t="s">
         <v>58</v>
       </c>
@@ -10389,16 +12005,16 @@
       </c>
     </row>
     <row r="23" spans="6:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="F23" s="24"/>
-      <c r="G23" s="23" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="6:19" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
@@ -10416,7 +12032,7 @@
       </c>
     </row>
     <row r="28" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10446,4 +12062,472 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D26A0F-A096-4CF7-8D08-669E85CE1D22}">
+  <dimension ref="C4:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>2000</v>
+      </c>
+      <c r="S12">
+        <f xml:space="preserve"> 5%*R12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <f xml:space="preserve"> S12 * 10 + R12</f>
+        <v>3000</v>
+      </c>
+      <c r="S13">
+        <f xml:space="preserve"> 5%*R13</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f xml:space="preserve"> S13 * 10 + R13 + R12</f>
+        <v>6500</v>
+      </c>
+      <c r="S14">
+        <f xml:space="preserve"> 5%*R14</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <f xml:space="preserve"> S14 * 10 + R14 + R13 + R12</f>
+        <v>14750</v>
+      </c>
+      <c r="S15">
+        <f xml:space="preserve"> 5%*R15</f>
+        <v>737.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="25">
+        <v>43831</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f xml:space="preserve"> S15 * 10 + R15 + R14 + R13 + R12</f>
+        <v>33625</v>
+      </c>
+      <c r="S16">
+        <f xml:space="preserve"> 5%*R16</f>
+        <v>1681.25</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>SUM(G10:G16)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="25">
+        <v>43832</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29">
+        <f>SUM(M10:M27)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I29:L29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>